--- a/data/df_unido.xlsx
+++ b/data/df_unido.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34670\Desktop\python\coast_to_coast\viaje_usa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A32B9E-0FC5-4BE8-A8A8-514DC13C73A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F237417-1701-431C-80F0-A3CC0778ABA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7740" yWindow="1005" windowWidth="12780" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4617,8 +4617,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -4674,8 +4674,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4980,8 +4980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1522"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5360,10 +5360,10 @@
         <v>26</v>
       </c>
       <c r="B19">
-        <v>40.703666666666663</v>
+        <v>40.693260000000002</v>
       </c>
       <c r="C19">
-        <v>-74.096999999999994</v>
+        <v>-74.039720000000003</v>
       </c>
       <c r="E19" s="2">
         <v>41484.420405092591</v>

--- a/data/df_unido.xlsx
+++ b/data/df_unido.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34670\Desktop\python\coast_to_coast\viaje_usa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C17720-AF4E-4DC1-AADC-A03FF92036F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C0AA43-47C7-46E7-BE0D-E9F922D8A922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4983,8 +4983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1523"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6824,7 +6824,7 @@
         <v>40.74004</v>
       </c>
       <c r="C88">
-        <v>73.989580000000004</v>
+        <v>-73.989580000000004</v>
       </c>
       <c r="E88" s="2">
         <v>41484.703275462962</v>
@@ -7316,7 +7316,7 @@
         <v>40.752769999999998</v>
       </c>
       <c r="C112">
-        <v>73.979230000000001</v>
+        <v>-73.979230000000001</v>
       </c>
       <c r="E112" s="2">
         <v>41484.874340277784</v>

--- a/data/df_unido.xlsx
+++ b/data/df_unido.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34670\Desktop\python\coast_to_coast\viaje_usa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA4FA5B-A71F-465A-80DB-88F324C13B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACCFE0A-049B-4CE8-80AF-1D045AA8B200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4615,7 +4615,7 @@
     <t>BARAJAS</t>
   </si>
   <si>
-    <t>HOTEL</t>
+    <t>HOTEL.JPG</t>
   </si>
 </sst>
 </file>
@@ -4987,7 +4987,7 @@
   <dimension ref="A1:G1524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/df_unido.xlsx
+++ b/data/df_unido.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34670\Desktop\python\coast_to_coast\viaje_usa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0690BDE5-3B21-4849-BD95-26EAF6661518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD625E00-B767-4E39-ACD7-C78A46DA3237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15750" yWindow="345" windowWidth="12780" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4990,7 +4990,7 @@
   <dimension ref="A1:G1525"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5129,7 +5129,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3">
-        <v>4.7552500000000002</v>
+        <v>40.755249999999997</v>
       </c>
       <c r="C7" s="3">
         <v>-73.979129999999998</v>

--- a/data/df_unido.xlsx
+++ b/data/df_unido.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34670\Desktop\python\coast_to_coast\viaje_usa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BC1933-D289-45C2-A7E7-0AA808188C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535D13BE-60E5-4650-8ADA-B21AD99AAD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="2625" windowWidth="15465" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14790" yWindow="3225" windowWidth="15465" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4652,7 +4652,7 @@
     <t>IMG_PENST.JPG</t>
   </si>
   <si>
-    <t>IMG_WAS_ST</t>
+    <t>IMG_WAS_ST.JPG</t>
   </si>
 </sst>
 </file>
@@ -5023,8 +5023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1534"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="E270" sqref="E270"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="A267" sqref="A267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/df_unido.xlsx
+++ b/data/df_unido.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34670\Desktop\python\coast_to_coast\viaje_usa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535D13BE-60E5-4650-8ADA-B21AD99AAD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45291B5A-DB74-4EAA-9E57-3DF70134604B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14790" yWindow="3225" windowWidth="15465" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14550" yWindow="2205" windowWidth="15465" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3073" uniqueCount="1540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3073" uniqueCount="1541">
   <si>
     <t>file_name</t>
   </si>
@@ -4653,6 +4653,9 @@
   </si>
   <si>
     <t>IMG_WAS_ST.JPG</t>
+  </si>
+  <si>
+    <t>IMA_PENST2.JPG</t>
   </si>
 </sst>
 </file>
@@ -5023,7 +5026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1534"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
       <selection activeCell="A267" sqref="A267"/>
     </sheetView>
   </sheetViews>
@@ -10405,8 +10408,7 @@
         <v>38.898859999999999</v>
       </c>
       <c r="C261">
-        <f>--77.03368</f>
-        <v>77.033680000000004</v>
+        <v>-77.033680000000004</v>
       </c>
       <c r="E261" s="2">
         <v>41486.718391203707</v>
@@ -10520,7 +10522,7 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>1534</v>
+        <v>1540</v>
       </c>
       <c r="B267">
         <v>40.751660000000001</v>

--- a/data/df_unido.xlsx
+++ b/data/df_unido.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34670\Desktop\python\coast_to_coast\viaje_usa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45291B5A-DB74-4EAA-9E57-3DF70134604B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6240764-9DC9-440D-A950-0C789EBB468D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14550" yWindow="2205" windowWidth="15465" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8865" yWindow="2310" windowWidth="15465" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5027,7 +5027,7 @@
   <dimension ref="A1:G1534"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="A267" sqref="A267"/>
+      <selection activeCell="E267" sqref="E267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10531,7 +10531,7 @@
         <v>-73.995230000000006</v>
       </c>
       <c r="E267" s="2">
-        <v>41485.952326388891</v>
+        <v>41486.952326388891</v>
       </c>
       <c r="F267" t="s">
         <v>8</v>
@@ -10551,7 +10551,7 @@
         <v>-73.977350000000001</v>
       </c>
       <c r="E268" s="2">
-        <v>41485.965520833335</v>
+        <v>41486.965520833335</v>
       </c>
       <c r="F268" t="s">
         <v>8</v>

--- a/data/df_unido.xlsx
+++ b/data/df_unido.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34670\Desktop\python\coast_to_coast\viaje_usa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AFFD45-DBFB-4D0F-8E60-E094C3DB838B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070773E6-8D77-43B5-A7D4-B65FA8F48A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="2535" windowWidth="15465" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8175" yWindow="2790" windowWidth="15465" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4658,7 +4658,7 @@
     <t>IMA_PENST2.JPG</t>
   </si>
   <si>
-    <t>IMG_METHARLEN</t>
+    <t>IMG_METHARLEN.JPG</t>
   </si>
 </sst>
 </file>
@@ -5029,8 +5029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1535"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
-      <selection activeCell="A325" sqref="A325"/>
+    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
+      <selection activeCell="A273" sqref="A273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/df_unido.xlsx
+++ b/data/df_unido.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34670\Desktop\python\coast_to_coast\viaje_usa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070773E6-8D77-43B5-A7D4-B65FA8F48A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FB8039-903C-4EE2-B989-26A781DFB7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8175" yWindow="2790" windowWidth="15465" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15945" yWindow="3255" windowWidth="15465" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5029,8 +5029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1535"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
-      <selection activeCell="A273" sqref="A273"/>
+    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="C291" sqref="C291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10991,7 +10991,7 @@
         <v>40.797739999999997</v>
       </c>
       <c r="C290">
-        <v>-7395489</v>
+        <v>-73.954890000000006</v>
       </c>
       <c r="E290" s="2">
         <v>41487.509108796286</v>
@@ -11011,7 +11011,7 @@
         <v>40.797739999999997</v>
       </c>
       <c r="C291">
-        <v>-7395489</v>
+        <v>-73.954890000000006</v>
       </c>
       <c r="E291" s="2">
         <v>41487.509108796286</v>

--- a/data/df_unido.xlsx
+++ b/data/df_unido.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34670\Desktop\python\coast_to_coast\viaje_usa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85736A8-6162-4C0B-A4FB-2B5F3475C0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CFF8DC-B551-4DFE-8FDA-3F1368C304A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13560" yWindow="1950" windowWidth="15465" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28128" yWindow="912" windowWidth="15468" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5041,8 +5041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="C417" sqref="C417"/>
+    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
+      <selection activeCell="C332" sqref="C332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11826,7 +11826,7 @@
         <v>40.792990000000003</v>
       </c>
       <c r="C331">
-        <v>73.823830000000001</v>
+        <v>-73.823830000000001</v>
       </c>
       <c r="E331" s="2">
         <v>41488.484432870369</v>
@@ -12109,7 +12109,7 @@
         <v>41.287880000000001</v>
       </c>
       <c r="C345">
-        <v>-74.885459999999995</v>
+        <v>-72.885459999999995</v>
       </c>
       <c r="E345" s="2">
         <v>41488.681226851862</v>

--- a/data/df_unido.xlsx
+++ b/data/df_unido.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34670\Desktop\python\coast_to_coast\viaje_usa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1F1660-2B5F-43AA-859C-257B8F06C568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698A0B00-80F9-4D72-8255-139480D0E2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9615" yWindow="360" windowWidth="15465" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="945" windowWidth="15465" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5053,8 +5053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1543"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="F431" sqref="F431"/>
+    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
+      <selection activeCell="C406" sqref="C406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13376,10 +13376,10 @@
         <v>393</v>
       </c>
       <c r="B404">
-        <v>43.028166666666657</v>
+        <v>43.087000000000003</v>
       </c>
       <c r="C404">
-        <v>-78.877166666666668</v>
+        <v>-79.069000000000003</v>
       </c>
       <c r="E404" s="2">
         <v>41489.680347222216</v>
@@ -13396,10 +13396,10 @@
         <v>394</v>
       </c>
       <c r="B405">
-        <v>43.028166666666657</v>
+        <v>43.087000000000003</v>
       </c>
       <c r="C405">
-        <v>-78.877166666666668</v>
+        <v>-79.069000000000003</v>
       </c>
       <c r="E405" s="2">
         <v>41489.680486111109</v>

--- a/data/df_unido.xlsx
+++ b/data/df_unido.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34670\Desktop\python\coast_to_coast\viaje_usa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698A0B00-80F9-4D72-8255-139480D0E2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EBFAEA-8253-4C21-BF14-17423CBCB9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4200" yWindow="945" windowWidth="15465" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5053,8 +5053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1543"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
-      <selection activeCell="C406" sqref="C406"/>
+    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
+      <selection activeCell="B443" sqref="B443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14018,6 +14018,12 @@
       <c r="A433" t="s">
         <v>417</v>
       </c>
+      <c r="B433">
+        <v>41.547260000000001</v>
+      </c>
+      <c r="C433">
+        <v>-83.598910000000004</v>
+      </c>
       <c r="E433" s="2">
         <v>41490.468553240738</v>
       </c>
@@ -14032,6 +14038,12 @@
       <c r="A434" t="s">
         <v>418</v>
       </c>
+      <c r="B434">
+        <v>41.548430000000003</v>
+      </c>
+      <c r="C434">
+        <v>-83.599609999999998</v>
+      </c>
       <c r="E434" s="2">
         <v>41490.478321759263</v>
       </c>
@@ -14044,13 +14056,22 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>419</v>
+        <v>423</v>
+      </c>
+      <c r="B435">
+        <v>41.549333333333337</v>
+      </c>
+      <c r="C435">
+        <v>-83.602000000000004</v>
+      </c>
+      <c r="D435">
+        <v>189.33226837060701</v>
       </c>
       <c r="E435" s="2">
-        <v>41490.503923611112</v>
+        <v>41490.520451388889</v>
       </c>
       <c r="F435" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G435">
         <v>9</v>
@@ -14058,10 +14079,16 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>420</v>
+        <v>419</v>
+      </c>
+      <c r="B436">
+        <v>41.607129999999998</v>
+      </c>
+      <c r="C436">
+        <v>-84.46454</v>
       </c>
       <c r="E436" s="2">
-        <v>41490.504236111112</v>
+        <v>41490.503923611112</v>
       </c>
       <c r="F436" t="s">
         <v>8</v>
@@ -14072,10 +14099,16 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>421</v>
+        <v>420</v>
+      </c>
+      <c r="B437">
+        <v>41.610790000000001</v>
+      </c>
+      <c r="C437">
+        <v>-84.526470000000003</v>
       </c>
       <c r="E437" s="2">
-        <v>41490.504965277767</v>
+        <v>41490.504236111112</v>
       </c>
       <c r="F437" t="s">
         <v>8</v>
@@ -14086,10 +14119,16 @@
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>422</v>
+        <v>421</v>
+      </c>
+      <c r="B438">
+        <v>41.615540000000003</v>
+      </c>
+      <c r="C438">
+        <v>-84.567179999999993</v>
       </c>
       <c r="E438" s="2">
-        <v>41490.509166666663</v>
+        <v>41490.504965277767</v>
       </c>
       <c r="F438" t="s">
         <v>8</v>
@@ -14100,22 +14139,19 @@
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B439">
-        <v>41.549333333333337</v>
+        <v>41.618479999999998</v>
       </c>
       <c r="C439">
-        <v>-83.602000000000004</v>
-      </c>
-      <c r="D439">
-        <v>189.33226837060701</v>
+        <v>-84.674120000000002</v>
       </c>
       <c r="E439" s="2">
-        <v>41490.520451388889</v>
+        <v>41490.509166666663</v>
       </c>
       <c r="F439" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G439">
         <v>9</v>
@@ -14125,6 +14161,12 @@
       <c r="A440" t="s">
         <v>424</v>
       </c>
+      <c r="B440">
+        <v>41.730969999999999</v>
+      </c>
+      <c r="C440">
+        <v>-85.965729999999994</v>
+      </c>
       <c r="E440" s="2">
         <v>41490.557615740741</v>
       </c>
@@ -14139,6 +14181,12 @@
       <c r="A441" t="s">
         <v>425</v>
       </c>
+      <c r="B441">
+        <v>41.715159999999997</v>
+      </c>
+      <c r="C441">
+        <v>-87.538420000000002</v>
+      </c>
       <c r="E441" s="2">
         <v>41490.61582175926</v>
       </c>
@@ -14152,6 +14200,12 @@
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>426</v>
+      </c>
+      <c r="B442">
+        <v>41.717300000000002</v>
+      </c>
+      <c r="C442">
+        <v>-87.542019999999994</v>
       </c>
       <c r="E442" s="2">
         <v>41490.616307870368</v>

--- a/data/df_unido.xlsx
+++ b/data/df_unido.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34670\Desktop\python\coast_to_coast\viaje_usa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204F6099-0473-4432-8DC1-E5556AEB9EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBABF47-A862-4179-B776-33D05B423117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4645" uniqueCount="1557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4649" uniqueCount="1561">
   <si>
     <t>file_name</t>
   </si>
@@ -4704,6 +4704,18 @@
   </si>
   <si>
     <t>Primera foto en Estados Unidos, en el aeropuerto JFK de NY.</t>
+  </si>
+  <si>
+    <t>LONDRES.jpg</t>
+  </si>
+  <si>
+    <t>BARAJAS.jpg</t>
+  </si>
+  <si>
+    <t>Paseo para estirar las piernas tras los vuelos.</t>
+  </si>
+  <si>
+    <t>Foto de la Estación Central de NY</t>
   </si>
 </sst>
 </file>
@@ -5075,7 +5087,7 @@
   <dimension ref="A1:J1544"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5168,7 +5180,7 @@
         <v>1554</v>
       </c>
       <c r="J3" t="s">
-        <v>1531</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -5197,7 +5209,7 @@
         <v>1555</v>
       </c>
       <c r="J4" t="s">
-        <v>1553</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -5387,7 +5399,13 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1559</v>
+      </c>
+      <c r="J12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -5433,7 +5451,13 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">

--- a/data/df_unido.xlsx
+++ b/data/df_unido.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34670\Desktop\python\coast_to_coast\viaje_usa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAD7F81-A257-47E4-B012-CEA130E0435D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261B06D2-3504-4880-90A2-CA8D821B3F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4646" uniqueCount="1560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4660" uniqueCount="1567">
   <si>
     <t>file_name</t>
   </si>
@@ -4713,6 +4713,27 @@
   </si>
   <si>
     <t>Foto de la Estación Central de NY</t>
+  </si>
+  <si>
+    <t>Desayunando en nuestro lugar favorito de NY</t>
+  </si>
+  <si>
+    <t>Imagen del bajo Manhattan desde el barco para ver la Estatua de la Libertad</t>
+  </si>
+  <si>
+    <t>Estatua de la Libertad</t>
+  </si>
+  <si>
+    <t>El toro de Wall Street</t>
+  </si>
+  <si>
+    <t>El edificio de la bolsa de NY</t>
+  </si>
+  <si>
+    <t>En 2013 aún estaba en construcción el entorno de las torres gemelas</t>
+  </si>
+  <si>
+    <t>Foto en el puente de Brooklyn</t>
   </si>
 </sst>
 </file>
@@ -5084,7 +5105,7 @@
   <dimension ref="A1:J1543"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5500,10 +5521,16 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -5526,7 +5553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -5549,7 +5576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -5572,7 +5599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -5592,10 +5619,16 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1561</v>
+      </c>
+      <c r="J20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -5618,7 +5651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -5641,7 +5674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -5667,7 +5700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -5693,7 +5726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -5716,7 +5749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -5736,10 +5769,16 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1562</v>
+      </c>
+      <c r="J26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -5765,7 +5804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -5791,7 +5830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -5817,7 +5856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -5843,7 +5882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -5869,7 +5908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -5895,7 +5934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -5921,7 +5960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -5947,7 +5986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -5973,7 +6012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -5999,7 +6038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -6025,7 +6064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -6051,7 +6090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -6077,7 +6116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -6100,7 +6139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -6123,7 +6162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -6146,7 +6185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -6169,7 +6208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -6189,10 +6228,16 @@
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1563</v>
+      </c>
+      <c r="J44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -6215,7 +6260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -6241,7 +6286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -6267,7 +6312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -6290,7 +6335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -6313,7 +6358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -6336,7 +6381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -6359,7 +6404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -6385,7 +6430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -6411,7 +6456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -6434,7 +6479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -6457,7 +6502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -6477,10 +6522,16 @@
         <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I56" t="s">
+        <v>1564</v>
+      </c>
+      <c r="J56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -6503,7 +6554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -6526,7 +6577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -6549,7 +6600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -6572,7 +6623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -6598,7 +6649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -6618,10 +6669,16 @@
         <v>3</v>
       </c>
       <c r="H62" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I62" t="s">
+        <v>1565</v>
+      </c>
+      <c r="J62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -6644,7 +6701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -6667,7 +6724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -6693,7 +6750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -6719,7 +6776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -6742,7 +6799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -6765,7 +6822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -6788,7 +6845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -6811,7 +6868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -6837,15 +6894,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>75</v>
       </c>
       <c r="B72">
-        <v>40.708500000000001</v>
+        <v>40.708509999999997</v>
       </c>
       <c r="C72">
-        <v>-73.999833333333328</v>
+        <v>-73.999811109999996</v>
       </c>
       <c r="D72">
         <v>30.570149253731341</v>
@@ -6863,7 +6920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -6886,18 +6943,24 @@
         <v>3</v>
       </c>
       <c r="H73" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I73" t="s">
+        <v>1566</v>
+      </c>
+      <c r="J73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>77</v>
       </c>
       <c r="B74">
-        <v>40.708500000000001</v>
+        <v>40.70852</v>
       </c>
       <c r="C74">
-        <v>-73.999833333333328</v>
+        <v>-73.999844444000004</v>
       </c>
       <c r="E74" s="2">
         <v>41484.547326388893</v>
@@ -6912,7 +6975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>78</v>
       </c>
@@ -6938,7 +7001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1527</v>
       </c>
@@ -6961,7 +7024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -6984,7 +7047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -7007,7 +7070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -7030,7 +7093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>82</v>
       </c>

--- a/data/df_unido.xlsx
+++ b/data/df_unido.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34670\Desktop\python\coast_to_coast\viaje_usa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261B06D2-3504-4880-90A2-CA8D821B3F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD9A0EE-5CD1-4772-8A05-834167894503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5104,8 +5104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1543"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5754,10 +5754,10 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>40.689</v>
+        <v>40.688000000000002</v>
       </c>
       <c r="C26">
-        <v>-74.043666666666667</v>
+        <v>-74.043656666666706</v>
       </c>
       <c r="E26" s="2">
         <v>41484.431770833333</v>
@@ -6654,10 +6654,10 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>40.709833333333343</v>
+        <v>40.71</v>
       </c>
       <c r="C62">
-        <v>-74.012833333333333</v>
+        <v>-74.013000000000005</v>
       </c>
       <c r="E62" s="2">
         <v>41484.506157407413</v>

--- a/data/df_unido.xlsx
+++ b/data/df_unido.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34670\Desktop\python\coast_to_coast\viaje_usa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD9A0EE-5CD1-4772-8A05-834167894503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5617886-C027-488E-8629-10AD01CB9E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5104,8 +5104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1543"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5754,10 +5754,10 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>40.688000000000002</v>
+        <v>40.689570000000003</v>
       </c>
       <c r="C26">
-        <v>-74.043656666666706</v>
+        <v>-74.043559999999999</v>
       </c>
       <c r="E26" s="2">
         <v>41484.431770833333</v>
@@ -6213,10 +6213,10 @@
         <v>47</v>
       </c>
       <c r="B44" s="3">
-        <v>40.70561</v>
+        <v>40.705649999999999</v>
       </c>
       <c r="C44" s="3">
-        <v>-74.013599999999997</v>
+        <v>-74.013390000000001</v>
       </c>
       <c r="E44" s="2">
         <v>41484.485081018523</v>
@@ -6654,10 +6654,10 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>40.71</v>
+        <v>40.71011</v>
       </c>
       <c r="C62">
-        <v>-74.013000000000005</v>
+        <v>-74.012630000000001</v>
       </c>
       <c r="E62" s="2">
         <v>41484.506157407413</v>

--- a/data/df_unido.xlsx
+++ b/data/df_unido.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34670\Desktop\python\coast_to_coast\viaje_usa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5617886-C027-488E-8629-10AD01CB9E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8324FC-1D8C-48C6-82F7-06DD772A96F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4660" uniqueCount="1567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4672" uniqueCount="1573">
   <si>
     <t>file_name</t>
   </si>
@@ -4734,6 +4734,24 @@
   </si>
   <si>
     <t>Foto en el puente de Brooklyn</t>
+  </si>
+  <si>
+    <t>Primer banco de Nueva York subiendo por Broadway desde el bajo Manhattan</t>
+  </si>
+  <si>
+    <t>Vista del Empire State Building subiendo por Broadway</t>
+  </si>
+  <si>
+    <t>Edificio Flamarion</t>
+  </si>
+  <si>
+    <t>Madison Square Garden</t>
+  </si>
+  <si>
+    <t>Parque de bomberos de NY</t>
+  </si>
+  <si>
+    <t>Vistas desde el Empire State Building en su terraza</t>
   </si>
 </sst>
 </file>
@@ -5104,8 +5122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1543"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="K104" sqref="K104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7067,7 +7085,13 @@
         <v>3</v>
       </c>
       <c r="H78" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="I78" t="s">
+        <v>1567</v>
+      </c>
+      <c r="J78" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -7116,7 +7140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -7139,7 +7163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -7162,7 +7186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -7185,7 +7209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -7208,7 +7232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -7231,7 +7255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -7254,7 +7278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -7277,7 +7301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -7300,7 +7324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>91</v>
       </c>
@@ -7323,7 +7347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -7346,7 +7370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -7366,10 +7390,16 @@
         <v>3</v>
       </c>
       <c r="H91" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I91" t="s">
+        <v>1568</v>
+      </c>
+      <c r="J91" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -7392,7 +7422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -7415,7 +7445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -7438,7 +7468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -7458,10 +7488,16 @@
         <v>3</v>
       </c>
       <c r="H95" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I95" t="s">
+        <v>1569</v>
+      </c>
+      <c r="J95" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -7484,7 +7520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -7510,7 +7546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1528</v>
       </c>
@@ -7533,7 +7569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -7556,7 +7592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -7579,7 +7615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -7602,7 +7638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -7625,7 +7661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -7645,10 +7681,16 @@
         <v>3</v>
       </c>
       <c r="H103" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I103" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J103" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -7674,7 +7716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -7700,7 +7742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -7723,7 +7765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -7749,7 +7791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -7772,7 +7814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>110</v>
       </c>
@@ -7795,7 +7837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>111</v>
       </c>
@@ -7815,15 +7857,21 @@
         <v>3</v>
       </c>
       <c r="H110" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I110" t="s">
+        <v>1571</v>
+      </c>
+      <c r="J110" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>112</v>
       </c>
       <c r="B111">
-        <v>40.7485</v>
+        <v>40.747999999999998</v>
       </c>
       <c r="C111">
         <v>-73.985640000000004</v>
@@ -7841,7 +7889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>113</v>
       </c>
@@ -7861,7 +7909,13 @@
         <v>3</v>
       </c>
       <c r="H112" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="I112" t="s">
+        <v>1572</v>
+      </c>
+      <c r="J112" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">

--- a/data/df_unido.xlsx
+++ b/data/df_unido.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34670\Desktop\python\coast_to_coast\viaje_usa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8324FC-1D8C-48C6-82F7-06DD772A96F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08900492-415F-4AB3-A442-DD6AF18F0F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4672" uniqueCount="1573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4698" uniqueCount="1586">
   <si>
     <t>file_name</t>
   </si>
@@ -4752,6 +4752,45 @@
   </si>
   <si>
     <t>Vistas desde el Empire State Building en su terraza</t>
+  </si>
+  <si>
+    <t>Mural en tienda comercial camino de Penn Station</t>
+  </si>
+  <si>
+    <t>Penn Station camino a Philadelphia</t>
+  </si>
+  <si>
+    <t>Desde el tren</t>
+  </si>
+  <si>
+    <t>Desde el tren, Trenton</t>
+  </si>
+  <si>
+    <t>En Philadelphia, saliendo de la estación de tren</t>
+  </si>
+  <si>
+    <t>Skyline Philadelphia</t>
+  </si>
+  <si>
+    <t>City Hall de Philadelphia</t>
+  </si>
+  <si>
+    <t>Puente de Benjamin Franklin sobre el rio Delaware</t>
+  </si>
+  <si>
+    <t>Lugar perfecto para comerse un Philly Cheesesteak</t>
+  </si>
+  <si>
+    <t>Philadelphia monumental… conjunto de edificios históricos en la ciudad</t>
+  </si>
+  <si>
+    <t>El edificio y entorno de la campana de la libertad</t>
+  </si>
+  <si>
+    <t>Barrio chino de Philadelphia</t>
+  </si>
+  <si>
+    <t>Foto en Time Square</t>
   </si>
 </sst>
 </file>
@@ -5122,8 +5161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1543"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="K104" sqref="K104"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="F137" sqref="F137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8286,7 +8325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>130</v>
       </c>
@@ -8309,7 +8348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>131</v>
       </c>
@@ -8329,10 +8368,16 @@
         <v>4</v>
       </c>
       <c r="H130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I130" t="s">
+        <v>1573</v>
+      </c>
+      <c r="J130" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>132</v>
       </c>
@@ -8352,10 +8397,16 @@
         <v>4</v>
       </c>
       <c r="H131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I131" t="s">
+        <v>1574</v>
+      </c>
+      <c r="J131" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>133</v>
       </c>
@@ -8375,10 +8426,16 @@
         <v>4</v>
       </c>
       <c r="H132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I132" t="s">
+        <v>1575</v>
+      </c>
+      <c r="J132" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>134</v>
       </c>
@@ -8401,7 +8458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>135</v>
       </c>
@@ -8421,10 +8478,16 @@
         <v>4</v>
       </c>
       <c r="H134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I134" t="s">
+        <v>1576</v>
+      </c>
+      <c r="J134" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>136</v>
       </c>
@@ -8447,7 +8510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>137</v>
       </c>
@@ -8470,7 +8533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>138</v>
       </c>
@@ -8493,7 +8556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>139</v>
       </c>
@@ -8516,7 +8579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>140</v>
       </c>
@@ -8536,10 +8599,16 @@
         <v>4</v>
       </c>
       <c r="H139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I139" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J139" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>141</v>
       </c>
@@ -8562,7 +8631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>142</v>
       </c>
@@ -8585,7 +8654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>143</v>
       </c>
@@ -8605,10 +8674,16 @@
         <v>4</v>
       </c>
       <c r="H142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I142" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J142" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>144</v>
       </c>
@@ -8631,7 +8706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>145</v>
       </c>
@@ -8654,7 +8729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>146</v>
       </c>
@@ -8674,10 +8749,16 @@
         <v>4</v>
       </c>
       <c r="H145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I145" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J145" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>147</v>
       </c>
@@ -8700,7 +8781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>148</v>
       </c>
@@ -8723,7 +8804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>149</v>
       </c>
@@ -8746,7 +8827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>150</v>
       </c>
@@ -8769,7 +8850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>151</v>
       </c>
@@ -8789,10 +8870,16 @@
         <v>4</v>
       </c>
       <c r="H150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I150" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J150" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>152</v>
       </c>
@@ -8815,7 +8902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>153</v>
       </c>
@@ -8838,7 +8925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>154</v>
       </c>
@@ -8861,7 +8948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>155</v>
       </c>
@@ -8881,10 +8968,16 @@
         <v>4</v>
       </c>
       <c r="H154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I154" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J154" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>156</v>
       </c>
@@ -8907,7 +9000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>157</v>
       </c>
@@ -8930,7 +9023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>158</v>
       </c>
@@ -8953,7 +9046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>159</v>
       </c>
@@ -8976,7 +9069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>160</v>
       </c>
@@ -8999,7 +9092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>161</v>
       </c>
@@ -9019,10 +9112,16 @@
         <v>4</v>
       </c>
       <c r="H160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I160" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J160" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>162</v>
       </c>
@@ -9045,7 +9144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>163</v>
       </c>
@@ -9068,7 +9167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>164</v>
       </c>
@@ -9091,7 +9190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>165</v>
       </c>
@@ -9111,10 +9210,16 @@
         <v>4</v>
       </c>
       <c r="H164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I164" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J164" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>166</v>
       </c>
@@ -9137,7 +9242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>167</v>
       </c>
@@ -9160,7 +9265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>168</v>
       </c>
@@ -9183,7 +9288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>169</v>
       </c>
@@ -9206,7 +9311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>170</v>
       </c>
@@ -9226,10 +9331,16 @@
         <v>4</v>
       </c>
       <c r="H169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I169" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J169" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>171</v>
       </c>
@@ -9252,7 +9363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1532</v>
       </c>
@@ -9275,7 +9386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1533</v>
       </c>
@@ -9298,7 +9409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -9321,7 +9432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1534</v>
       </c>
@@ -9344,7 +9455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>173</v>
       </c>
@@ -9367,7 +9478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>174</v>
       </c>
@@ -9764,7 +9875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>191</v>
       </c>
@@ -9790,7 +9901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>192</v>
       </c>
@@ -9813,7 +9924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>193</v>
       </c>
@@ -9836,7 +9947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>194</v>
       </c>
@@ -9859,7 +9970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>195</v>
       </c>
@@ -9885,7 +9996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>196</v>
       </c>
@@ -9908,7 +10019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>197</v>
       </c>
@@ -9934,7 +10045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>198</v>
       </c>
@@ -9960,7 +10071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>199</v>
       </c>
@@ -9986,7 +10097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>200</v>
       </c>
@@ -10012,7 +10123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>201</v>
       </c>
@@ -10038,7 +10149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>202</v>
       </c>
@@ -10061,7 +10172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>203</v>
       </c>
@@ -10084,7 +10195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>204</v>
       </c>
@@ -10107,7 +10218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>205</v>
       </c>
@@ -10133,15 +10244,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>206</v>
       </c>
       <c r="B208">
-        <v>40.757950000000001</v>
+        <v>40.75797</v>
       </c>
       <c r="C208">
-        <v>-73.985500000000002</v>
+        <v>-73.985553999999993</v>
       </c>
       <c r="E208" s="2">
         <v>41485.898969907408</v>
@@ -10153,7 +10264,13 @@
         <v>4</v>
       </c>
       <c r="H208" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="I208" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J208" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">

--- a/data/df_unido.xlsx
+++ b/data/df_unido.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34670\Desktop\python\coast_to_coast\viaje_usa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20F8E31-B793-49F0-8612-A4E0C42F9E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CD0193-660C-48E7-9C7F-879782058881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28188" yWindow="900" windowWidth="15468" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28188" yWindow="0" windowWidth="15468" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5222,7 +5222,7 @@
   <dimension ref="A1:XFA1563"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A425" workbookViewId="0">
-      <selection activeCell="A440" sqref="A440"/>
+      <selection activeCell="E437" sqref="E437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15731,7 +15731,7 @@
         <v>189.33226837060701</v>
       </c>
       <c r="E435" s="2">
-        <v>41490.520451388889</v>
+        <v>41490.478784722225</v>
       </c>
       <c r="F435" t="s">
         <v>10</v>

--- a/data/df_unido.xlsx
+++ b/data/df_unido.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34670\Desktop\python\coast_to_coast\viaje_usa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240D85A4-6B67-4248-8BB7-BF8D7C5D5042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FBEACE-0EB9-435D-B0DC-3B73AD055363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11625" yWindow="3060" windowWidth="15465" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5245,8 +5245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFA1571"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A431" workbookViewId="0">
-      <selection activeCell="E442" sqref="E442"/>
+    <sheetView tabSelected="1" topLeftCell="A464" workbookViewId="0">
+      <selection activeCell="B482" sqref="B482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25001,10 +25001,10 @@
         <v>1602</v>
       </c>
       <c r="B481">
-        <v>41.936700000000002</v>
+        <v>41.914009999999998</v>
       </c>
       <c r="C481">
-        <v>-87.6524</v>
+        <v>-87.65258</v>
       </c>
       <c r="E481" s="2">
         <v>41490.746712962966</v>

--- a/data/df_unido.xlsx
+++ b/data/df_unido.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34670\Desktop\python\coast_to_coast\viaje_usa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FBEACE-0EB9-435D-B0DC-3B73AD055363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C02B94-F339-48C2-807D-36DD35E6DBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11625" yWindow="3060" windowWidth="15465" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16275" yWindow="1290" windowWidth="15465" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4782" uniqueCount="1614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4782" uniqueCount="1615">
   <si>
     <t>file_name</t>
   </si>
@@ -4875,6 +4875,9 @@
   </si>
   <si>
     <t>IMG_I90_C1.JPG</t>
+  </si>
+  <si>
+    <t>IMG_HTROOS2.JPG</t>
   </si>
 </sst>
 </file>
@@ -5245,8 +5248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFA1571"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A464" workbookViewId="0">
-      <selection activeCell="B482" sqref="B482"/>
+    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="A269" sqref="A269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11755,7 +11758,7 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>1534</v>
+        <v>1614</v>
       </c>
       <c r="B268" s="3">
         <v>40.754489999999997</v>

--- a/data/df_unido.xlsx
+++ b/data/df_unido.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34670\Desktop\python\coast_to_coast\viaje_usa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE07E6D-ED1D-4E80-90EF-760EC0AC17B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203E1ABF-77B5-49DE-8D5F-3701FFEE2357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1905" windowWidth="15465" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8475" yWindow="1875" windowWidth="15465" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5320,8 +5320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFA1595"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A326" workbookViewId="0">
-      <selection activeCell="E347" sqref="E347"/>
+    <sheetView tabSelected="1" topLeftCell="A371" workbookViewId="0">
+      <selection activeCell="C391" sqref="C391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14678,7 +14678,7 @@
         <v>42.480640000000001</v>
       </c>
       <c r="C390">
-        <v>73.670699999999997</v>
+        <v>-73.670699999999997</v>
       </c>
       <c r="E390" s="2">
         <v>41488.891817129632</v>

--- a/data/df_unido.xlsx
+++ b/data/df_unido.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34670\Desktop\python\coast_to_coast\viaje_usa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77D0C4D-EE30-4873-AE98-16D5C669B21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1496EC5D-4329-47C7-BD01-0C208734714B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8475" yWindow="1875" windowWidth="15465" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5339,7 +5339,7 @@
   <dimension ref="A1:XFA1601"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="E388" sqref="E388"/>
+      <selection activeCell="C395" sqref="C395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14808,10 +14808,10 @@
         <v>1644</v>
       </c>
       <c r="B395">
-        <v>42.308329999999998</v>
+        <v>42.311410000000002</v>
       </c>
       <c r="C395">
-        <v>-72.352559999999997</v>
+        <v>-73.355360000000005</v>
       </c>
       <c r="E395" s="2">
         <v>41488.889039351852</v>
